--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Gender.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Gender.xlsx
@@ -47176,92 +47176,92 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="U481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -47275,92 +47275,92 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="U482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>

--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Gender.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Gender.xlsx
@@ -613,39 +613,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.515</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.499</t>
+          <t>0.556</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.333</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.559</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.534</t>
+          <t>0.537</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.539</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.550</t>
+          <t>0.552</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -660,33 +660,33 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.024 (P = 0.182)</t>
+          <t>-0.005 (P = 0.617)</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.037)</t>
+          <t>-0.004 (P = 0.684)</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.083 (P = 0.339)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.059 (P = 0.708)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.003 (P = 0.902)</t>
+          <t>-0.002 (P = 0.870)</t>
         </is>
       </c>
     </row>
@@ -1001,39 +1001,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.252</t>
+          <t>6.164</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.231</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.571</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.690</t>
+          <t>5.632</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.061</t>
+          <t>6.108</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.235</t>
+          <t>6.236</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6.400</t>
+          <t>6.399</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1048,33 +1048,33 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>6.045</t>
+          <t>6.047</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.846)</t>
+          <t>0.072 (P = 0.305)</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.023 (P = 0.826)</t>
+          <t>0.168 (P = 0.060)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.095 (P = 0.957)</t>
+          <t>0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.638)</t>
+          <t>0.316 (P = 0.454)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.908)</t>
+          <t>-0.061 (P = 0.600)</t>
         </is>
       </c>
     </row>
@@ -1489,28 +1489,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.404</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.237</t>
+          <t>3.763</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.429</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.833</t>
+          <t>2.263</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.644</t>
+          <t>4.242</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1541,28 +1541,28 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.970)</t>
+          <t>0.467 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.014 (P = 0.918)</t>
+          <t>0.461 (P = 0.000)</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.238 (P = 0.892)</t>
+          <t>-0.333 (P = 0.742)</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1.149 (P = 0.062)</t>
+          <t>-0.579 (P = 0.200)</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0.123 (P = 0.438)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -1976,28 +1976,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.695</t>
+          <t>6.777</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.891</t>
+          <t>6.959</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6.143</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7.167</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.459</t>
+          <t>6.525</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2028,28 +2028,28 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.001)</t>
+          <t>0.200 (P = 0.022)</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.324 (P = 0.004)</t>
+          <t>0.255 (P = 0.032)</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.810 (P = 0.777)</t>
+          <t>-0.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.307 (P = 0.618)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.211 (P = 0.110)</t>
+          <t>0.146 (P = 0.275)</t>
         </is>
       </c>
     </row>
@@ -2464,28 +2464,28 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.356</t>
+          <t>6.456</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.532</t>
+          <t>6.593</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5.571</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6.651</t>
+          <t>7.158</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.147</t>
+          <t>6.256</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2516,28 +2516,28 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.146 (P = 0.100)</t>
+          <t>0.046 (P = 0.616)</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.220 (P = 0.055)</t>
+          <t>0.159 (P = 0.171)</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.905 (P = 0.773)</t>
+          <t>-1.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.552)</t>
+          <t>-0.105 (P = 0.821)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.030 (P = 0.832)</t>
+          <t>-0.078 (P = 0.600)</t>
         </is>
       </c>
     </row>
@@ -2952,28 +2952,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.603</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.564</t>
+          <t>5.425</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3.357</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.023</t>
+          <t>4.737</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.674</t>
+          <t>5.536</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3004,28 +3004,28 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.000)</t>
+          <t>0.525 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.422 (P = 0.000)</t>
+          <t>0.561 (P = 0.000)</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.690 (P = 0.503)</t>
+          <t>-2.000 (P = 0.225)</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-0.339 (P = 0.645)</t>
+          <t>-0.053 (P = 0.909)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.007)</t>
+          <t>0.522 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -3440,39 +3440,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.130</t>
+          <t>6.132</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.172</t>
+          <t>6.109</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.286</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6.209</t>
+          <t>6.895</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.083</t>
+          <t>6.135</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.004</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>6.030</t>
+          <t>6.038</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3492,28 +3492,28 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-0.130 (P = 0.194)</t>
+          <t>-0.128 (P = 0.198)</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>-0.142 (P = 0.288)</t>
+          <t>-0.072 (P = 0.583)</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>1.714 (P = 0.635)</t>
+          <t>2.000 (P = 0.580)</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.209 (P = 0.778)</t>
+          <t>-0.895 (P = 0.022)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-0.128 (P = 0.414)</t>
+          <t>-0.179 (P = 0.255)</t>
         </is>
       </c>
     </row>
@@ -3928,28 +3928,28 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.197</t>
+          <t>3.883</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.977</t>
+          <t>3.720</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.714</t>
+          <t>2.667</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.262</t>
+          <t>3.421</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.486</t>
+          <t>4.117</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3980,28 +3980,28 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.023)</t>
+          <t>0.528 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.223 (P = 0.075)</t>
+          <t>0.480 (P = 0.000)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-1.048 (P = 0.492)</t>
+          <t>-1.000 (P = 0.225)</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.107 (P = 0.886)</t>
+          <t>-0.053 (P = 0.902)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.254 (P = 0.080)</t>
+          <t>0.623 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -4416,39 +4416,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7.464</t>
+          <t>7.418</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7.143</t>
+          <t>7.333</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.568</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>6.913</t>
+          <t>7.176</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.437</t>
+          <t>7.481</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>7.591</t>
+          <t>7.646</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4458,38 +4458,38 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>7.737</t>
+          <t>7.765</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>7.233</t>
+          <t>7.269</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.226 (P = 0.004)</t>
+          <t>0.159 (P = 0.030)</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.207)</t>
+          <t>0.228 (P = 0.017)</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.190 (P = 0.951)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.169 (P = 0.788)</t>
+          <t>-0.235 (P = 0.729)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.320 (P = 0.008)</t>
+          <t>0.093 (P = 0.426)</t>
         </is>
       </c>
     </row>
@@ -4904,39 +4904,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.891</t>
+          <t>5.257</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.876</t>
+          <t>5.193</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.077</t>
+          <t>1.667</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.800</t>
+          <t>5.467</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.351</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.334</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5.374</t>
+          <t>5.366</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4946,38 +4946,38 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6.053</t>
+          <t>6.067</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>5.269</t>
+          <t>5.304</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.443 (P = 0.000)</t>
+          <t>0.086 (P = 0.347)</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.498 (P = 0.002)</t>
+          <t>0.173 (P = 0.150)</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0.923 (P = 0.710)</t>
+          <t>1.333 (P = 0.456)</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.253 (P = 0.798)</t>
+          <t>0.600 (P = 0.548)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0.362 (P = 0.051)</t>
+          <t>-0.047 (P = 0.739)</t>
         </is>
       </c>
     </row>
@@ -5392,39 +5392,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.287</t>
+          <t>7.409</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.540</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.179</t>
+          <t>6.833</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.013</t>
+          <t>6.983</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>7.554</t>
+          <t>7.682</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5434,38 +5434,38 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>6.684</t>
+          <t>6.944</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>6.974</t>
+          <t>7.052</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-0.009 (P = 0.929)</t>
+          <t>-0.028 (P = 0.739)</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.014 (P = 0.914)</t>
+          <t>-0.122 (P = 0.302)</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.500 (P = 0.858)</t>
+          <t>1.333 (P = 0.697)</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-0.495 (P = 0.561)</t>
+          <t>0.111 (P = 0.870)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-0.039 (P = 0.814)</t>
+          <t>0.069 (P = 0.579)</t>
         </is>
       </c>
     </row>
@@ -5880,39 +5880,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.734</t>
+          <t>5.793</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.948</t>
+          <t>5.946</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.833</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.382</t>
+          <t>4.800</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.512</t>
+          <t>5.660</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5.403</t>
+          <t>5.439</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>5.418</t>
+          <t>5.467</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5922,38 +5922,38 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4.111</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>5.439</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>-0.331 (P = 0.002)</t>
+          <t>-0.354 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>-0.530 (P = 0.000)</t>
+          <t>-0.479 (P = 0.000)</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2.500 (P = 0.414)</t>
+          <t>2.000 (P = 0.635)</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-1.271 (P = 0.166)</t>
+          <t>-0.800 (P = 0.164)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-0.073 (P = 0.667)</t>
+          <t>-0.202 (P = 0.106)</t>
         </is>
       </c>
     </row>
@@ -6368,39 +6368,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6.542</t>
+          <t>6.931</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>7.688</t>
+          <t>8.214</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5.812</t>
+          <t>6.059</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>6.257</t>
+          <t>6.389</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>6.527</t>
+          <t>6.736</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6410,38 +6410,38 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>6.444</t>
+          <t>7.286</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>5.943</t>
+          <t>5.967</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0.057 (P = 0.612)</t>
+          <t>-0.151 (P = 0.059)</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>-0.016 (P = 0.914)</t>
+          <t>-0.195 (P = 0.063)</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>1.167 (P = 0.682)</t>
+          <t>2.667 (P = 0.371)</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-1.243 (P = 0.188)</t>
+          <t>-0.929 (P = 0.155)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0.131 (P = 0.461)</t>
+          <t>-0.092 (P = 0.456)</t>
         </is>
       </c>
     </row>
@@ -6856,39 +6856,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.262</t>
+          <t>6.674</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6.493</t>
+          <t>6.915</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.333</t>
+          <t>2.333</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6.833</t>
+          <t>7.647</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6.006</t>
+          <t>6.374</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6.423</t>
+          <t>6.475</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>6.730</t>
+          <t>6.824</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -6898,38 +6898,38 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>6.368</t>
+          <t>6.824</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>6.058</t>
+          <t>6.052</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.161 (P = 0.119)</t>
+          <t>-0.199 (P = 0.025)</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.237 (P = 0.068)</t>
+          <t>-0.092 (P = 0.419)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>1.667 (P = 0.455)</t>
+          <t>2.667 (P = 0.094)</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>-0.465 (P = 0.577)</t>
+          <t>-0.824 (P = 0.186)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.052 (P = 0.757)</t>
+          <t>-0.322 (P = 0.024)</t>
         </is>
       </c>
     </row>
@@ -7344,39 +7344,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5.930</t>
+          <t>5.869</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5.865</t>
+          <t>5.744</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4.567</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6.024</t>
+          <t>6.090</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5.496</t>
+          <t>5.585</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>5.540</t>
+          <t>5.654</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -7386,38 +7386,38 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2.353</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>5.573</t>
+          <t>5.603</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>-0.433 (P = 0.000)</t>
+          <t>-0.284 (P = 0.004)</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>-0.325 (P = 0.027)</t>
+          <t>-0.090 (P = 0.492)</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>-0.250 (P = 0.880)</t>
+          <t>1.000 (P = 0.678)</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>-2.214 (P = 0.012)</t>
+          <t>-1.167 (P = 0.046)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>-0.450 (P = 0.008)</t>
+          <t>-0.486 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -7832,39 +7832,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.931</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7.246</t>
+          <t>7.489</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5.455</t>
+          <t>9.333</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>7.706</t>
+          <t>7.438</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6.581</t>
+          <t>6.911</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6.395</t>
+          <t>6.510</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>6.490</t>
+          <t>6.626</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -7874,38 +7874,38 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>7.235</t>
+          <t>7.375</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>6.242</t>
+          <t>6.332</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.000)</t>
+          <t>-0.727 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>-0.756 (P = 0.000)</t>
+          <t>-0.863 (P = 0.000)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>1.545 (P = 0.346)</t>
+          <t>-2.333 (P = 0.073)</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-0.471 (P = 0.546)</t>
+          <t>-0.062 (P = 0.941)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>-0.339 (P = 0.047)</t>
+          <t>-0.579 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -8320,39 +8320,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.894</t>
+          <t>7.330</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7.199</t>
+          <t>7.659</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.769</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7.214</t>
+          <t>7.579</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>6.555</t>
+          <t>6.932</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>6.745</t>
+          <t>6.799</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>6.966</t>
+          <t>7.024</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -8367,33 +8367,33 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>6.440</t>
+          <t>6.493</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>-0.149 (P = 0.149)</t>
+          <t>-0.531 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>-0.233 (P = 0.080)</t>
+          <t>-0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>2.564 (P = 0.305)</t>
+          <t>1.000 (P = 0.423)</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>0.365 (P = 0.551)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-0.115 (P = 0.485)</t>
+          <t>-0.440 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -8808,39 +8808,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4.089</t>
+          <t>4.271</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3.937</t>
+          <t>4.080</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2.083</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3.500</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>4.275</t>
+          <t>4.524</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>3.827</t>
+          <t>3.887</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>3.469</t>
+          <t>3.522</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -8850,38 +8850,38 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3.118</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>4.271</t>
+          <t>4.297</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>-0.263 (P = 0.029)</t>
+          <t>-0.384 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-0.467 (P = 0.003)</t>
+          <t>-0.558 (P = 0.000)</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>3.583 (P = 0.335)</t>
+          <t>2.333 (P = 0.250)</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>-0.382 (P = 0.701)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-0.004 (P = 0.984)</t>
+          <t>-0.227 (P = 0.139)</t>
         </is>
       </c>
     </row>
@@ -9296,39 +9296,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6.694</t>
+          <t>7.038</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6.898</t>
+          <t>7.285</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3.786</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>7.562</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>6.485</t>
+          <t>6.743</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>6.592</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>6.707</t>
+          <t>6.800</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -9338,38 +9338,38 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>7.118</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>6.307</t>
+          <t>6.337</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>-0.163 (P = 0.095)</t>
+          <t>-0.446 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>-0.190 (P = 0.125)</t>
+          <t>-0.484 (P = 0.000)</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>0.214 (P = 0.885)</t>
+          <t>-0.333 (P = 0.910)</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>0.118 (P = 0.877)</t>
+          <t>-0.312 (P = 0.370)</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>-0.178 (P = 0.257)</t>
+          <t>-0.406 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -9784,39 +9784,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6.606</t>
+          <t>6.998</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6.801</t>
+          <t>7.140</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3.818</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7.121</t>
+          <t>6.867</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>6.392</t>
+          <t>6.837</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>6.936</t>
+          <t>7.109</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>7.135</t>
+          <t>7.312</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -9826,38 +9826,38 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>7.222</t>
+          <t>7.800</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>6.675</t>
+          <t>6.837</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.001)</t>
+          <t>0.112 (P = 0.175)</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0.334 (P = 0.006)</t>
+          <t>0.172 (P = 0.133)</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>2.182 (P = 0.507)</t>
+          <t>0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>0.101 (P = 0.896)</t>
+          <t>0.933 (P = 0.126)</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>0.283 (P = 0.073)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -10272,39 +10272,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.460</t>
+          <t>6.909</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6.625</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3.929</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>7.294</t>
+          <t>7.636</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6.290</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>6.789</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>6.684</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -10314,38 +10314,38 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>7.929</t>
+          <t>8.727</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>6.707</t>
+          <t>6.771</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>0.245 (P = 0.018)</t>
+          <t>-0.119 (P = 0.195)</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
         <is>
-          <t>0.059 (P = 0.659)</t>
+          <t>-0.246 (P = 0.053)</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>0.071 (P = 0.976)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>0.634 (P = 0.481)</t>
+          <t>1.091 (P = 0.052)</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>0.417 (P = 0.011)</t>
+          <t>-0.008 (P = 0.954)</t>
         </is>
       </c>
     </row>
@@ -10760,39 +10760,39 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.669</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.616</t>
+          <t>7.684</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6.643</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>7.553</t>
+          <t>8.071</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>7.734</t>
+          <t>7.925</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>7.104</t>
+          <t>7.199</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>6.838</t>
+          <t>6.975</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -10802,38 +10802,38 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>7.375</t>
+          <t>7.786</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>7.412</t>
+          <t>7.433</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>-0.566 (P = 0.000)</t>
+          <t>-0.605 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>-0.778 (P = 0.000)</t>
+          <t>-0.709 (P = 0.000)</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>1.024 (P = 0.370)</t>
+          <t>-1.000 (P = 0.423)</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>-0.178 (P = 0.825)</t>
+          <t>-0.286 (P = 0.453)</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>-0.322 (P = 0.014)</t>
+          <t>-0.493 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -11248,39 +11248,39 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.592</t>
+          <t>6.398</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>6.412</t>
+          <t>6.067</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>6.500</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>5.400</t>
+          <t>5.231</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>6.795</t>
+          <t>6.801</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>6.430</t>
+          <t>6.535</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>6.181</t>
+          <t>6.293</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -11290,38 +11290,38 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>5.111</t>
+          <t>5.769</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>6.781</t>
+          <t>6.826</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>-0.162 (P = 0.101)</t>
+          <t>0.138 (P = 0.124)</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr">
         <is>
-          <t>-0.231 (P = 0.088)</t>
+          <t>0.226 (P = 0.073)</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>1.500 (P = 0.589)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>-0.289 (P = 0.745)</t>
+          <t>0.538 (P = 0.490)</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>-0.015 (P = 0.919)</t>
+          <t>0.026 (P = 0.842)</t>
         </is>
       </c>
     </row>
@@ -11736,39 +11736,39 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7.111</t>
+          <t>7.470</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7.594</t>
+          <t>7.942</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4.214</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>8.512</t>
+          <t>8.556</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>6.546</t>
+          <t>6.843</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>7.503</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>7.880</t>
+          <t>7.931</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -11778,38 +11778,38 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>8.158</t>
+          <t>8.389</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>7.014</t>
+          <t>7.092</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.392 (P = 0.000)</t>
+          <t>0.100 (P = 0.136)</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
         <is>
-          <t>0.286 (P = 0.027)</t>
+          <t>-0.012 (P = 0.900)</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>1.786 (P = 0.581)</t>
+          <t>0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>-0.354 (P = 0.608)</t>
+          <t>-0.167 (P = 0.626)</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>0.467 (P = 0.007)</t>
+          <t>0.249 (P = 0.016)</t>
         </is>
       </c>
     </row>
@@ -12224,39 +12224,39 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.996</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>6.721</t>
+          <t>7.312</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.923</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>7.588</t>
+          <t>8.188</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>6.082</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>6.717</t>
+          <t>6.775</t>
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>7.095</t>
+          <t>7.149</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -12266,38 +12266,38 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>7.053</t>
+          <t>7.625</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>6.247</t>
+          <t>6.310</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>0.297 (P = 0.015)</t>
+          <t>-0.221 (P = 0.002)</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.016)</t>
+          <t>-0.163 (P = 0.093)</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>2.077 (P = 0.511)</t>
+          <t>-0.333 (P = 0.742)</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>-0.536 (P = 0.585)</t>
+          <t>-0.562 (P = 0.227)</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>0.166 (P = 0.401)</t>
+          <t>-0.273 (P = 0.010)</t>
         </is>
       </c>
     </row>
@@ -12712,39 +12712,39 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4.449</t>
+          <t>4.661</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4.707</t>
+          <t>4.936</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2.923</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5.441</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>4.163</t>
+          <t>4.320</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>5.177</t>
+          <t>5.061</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>5.566</t>
+          <t>5.482</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -12754,38 +12754,38 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>6.118</t>
+          <t>6.286</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>4.679</t>
+          <t>4.567</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0.728 (P = 0.000)</t>
+          <t>0.400 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr">
         <is>
-          <t>0.859 (P = 0.000)</t>
+          <t>0.546 (P = 0.000)</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>0.744 (P = 0.841)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>0.676 (P = 0.534)</t>
+          <t>0.286 (P = 0.784)</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>0.516 (P = 0.008)</t>
+          <t>0.247 (P = 0.078)</t>
         </is>
       </c>
     </row>
@@ -13200,39 +13200,39 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>5.697</t>
+          <t>6.030</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5.861</t>
+          <t>6.176</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3.846</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>6.306</t>
+          <t>6.500</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>5.508</t>
+          <t>5.842</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>6.320</t>
+          <t>6.375</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>6.455</t>
+          <t>6.539</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -13242,38 +13242,38 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>7.105</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>6.138</t>
+          <t>6.180</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0.624 (P = 0.000)</t>
+          <t>0.345 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr">
         <is>
-          <t>0.594 (P = 0.000)</t>
+          <t>0.363 (P = 0.001)</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.961)</t>
+          <t>-2.000 (P = 0.423)</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>0.800 (P = 0.408)</t>
+          <t>0.438 (P = 0.379)</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>0.631 (P = 0.000)</t>
+          <t>0.338 (P = 0.006)</t>
         </is>
       </c>
     </row>
@@ -13688,39 +13688,39 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>5.396</t>
+          <t>5.644</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>5.795</t>
+          <t>6.103</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2.636</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>6.121</t>
+          <t>6.429</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>4.975</t>
+          <t>5.110</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.628</t>
+          <t>5.699</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>6.030</t>
+          <t>6.199</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -13730,38 +13730,38 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>6.000</t>
+          <t>6.286</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>5.137</t>
+          <t>5.124</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.049)</t>
+          <t>0.055 (P = 0.546)</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr">
         <is>
-          <t>0.235 (P = 0.127)</t>
+          <t>0.096 (P = 0.463)</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>0.697 (P = 0.835)</t>
+          <t>0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>-0.121 (P = 0.906)</t>
+          <t>-0.143 (P = 0.868)</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>0.162 (P = 0.378)</t>
+          <t>0.014 (P = 0.914)</t>
         </is>
       </c>
     </row>
@@ -14176,39 +14176,39 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.287</t>
+          <t>6.699</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>6.729</t>
+          <t>7.288</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>7.051</t>
+          <t>7.562</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>5.806</t>
+          <t>6.003</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>6.466</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>7.115</t>
+          <t>7.356</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -14218,38 +14218,38 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>7.765</t>
+          <t>7.875</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>5.648</t>
+          <t>5.646</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>0.179 (P = 0.117)</t>
+          <t>-0.115 (P = 0.176)</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr">
         <is>
-          <t>0.386 (P = 0.006)</t>
+          <t>0.068 (P = 0.543)</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>0.833 (P = 0.743)</t>
+          <t>1.333 (P = 0.456)</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>0.713 (P = 0.447)</t>
+          <t>0.312 (P = 0.206)</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>-0.159 (P = 0.378)</t>
+          <t>-0.357 (P = 0.009)</t>
         </is>
       </c>
     </row>
@@ -14664,39 +14664,39 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5.279</t>
+          <t>5.514</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.607</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2.231</t>
+          <t>2.667</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5.444</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>5.069</t>
+          <t>5.446</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>5.101</t>
+          <t>5.181</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>5.202</t>
+          <t>5.342</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -14706,38 +14706,38 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>5.056</t>
+          <t>5.250</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>4.981</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>-0.179 (P = 0.114)</t>
+          <t>-0.333 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr">
         <is>
-          <t>-0.284 (P = 0.061)</t>
+          <t>-0.266 (P = 0.050)</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>2.769 (P = 0.388)</t>
+          <t>2.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>-0.389 (P = 0.676)</t>
+          <t>0.125 (P = 0.861)</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>-0.088 (P = 0.612)</t>
+          <t>-0.446 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -15152,39 +15152,39 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5.724</t>
+          <t>6.284</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>6.030</t>
+          <t>6.551</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>3.385</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>7.610</t>
+          <t>7.647</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>5.357</t>
+          <t>5.902</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>6.362</t>
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>6.582</t>
+          <t>6.669</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -15194,38 +15194,38 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>7.278</t>
+          <t>7.529</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>5.937</t>
+          <t>5.939</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>0.587 (P = 0.000)</t>
+          <t>0.078 (P = 0.249)</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr">
         <is>
-          <t>0.552 (P = 0.000)</t>
+          <t>0.118 (P = 0.220)</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>2.615 (P = 0.436)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>-0.332 (P = 0.731)</t>
+          <t>-0.118 (P = 0.840)</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>0.580 (P = 0.002)</t>
+          <t>0.037 (P = 0.699)</t>
         </is>
       </c>
     </row>
@@ -15640,39 +15640,39 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.600</t>
+          <t>3.542</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3.475</t>
+          <t>3.556</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1.786</t>
+          <t>2.333</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2.220</t>
+          <t>2.167</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3.786</t>
+          <t>3.592</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>3.776</t>
+          <t>3.769</t>
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>3.852</t>
+          <t>3.845</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -15682,38 +15682,38 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>2.579</t>
+          <t>2.611</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>3.750</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>0.176 (P = 0.070)</t>
+          <t>0.226 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr">
         <is>
-          <t>0.378 (P = 0.004)</t>
+          <t>0.289 (P = 0.004)</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>-0.452 (P = 0.694)</t>
+          <t>-1.000 (P = 0.423)</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>0.359 (P = 0.549)</t>
+          <t>0.444 (P = 0.088)</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>-0.036 (P = 0.812)</t>
+          <t>0.149 (P = 0.160)</t>
         </is>
       </c>
     </row>
@@ -16128,39 +16128,39 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.733</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7.036</t>
+          <t>7.566</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>7.833</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>7.711</t>
+          <t>8.059</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.434</t>
+          <t>7.915</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.880</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>7.632</t>
+          <t>7.756</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -16170,38 +16170,38 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>7.421</t>
+          <t>7.412</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>7.991</t>
+          <t>8.056</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.147 (P = 0.031)</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr">
         <is>
-          <t>0.596 (P = 0.000)</t>
+          <t>0.190 (P = 0.047)</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>-0.833 (P = 0.447)</t>
+          <t>-1.667 (P = 0.199)</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>-0.289 (P = 0.642)</t>
+          <t>-0.647 (P = 0.311)</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>0.557 (P = 0.000)</t>
+          <t>0.140 (P = 0.148)</t>
         </is>
       </c>
     </row>
@@ -16615,39 +16615,39 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.495</t>
+          <t>4.621</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>4.423</t>
+          <t>4.677</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>2.333</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>4.024</t>
+          <t>3.778</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4.605</t>
+          <t>4.602</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>4.823</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>4.877</t>
+          <t>4.880</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -16662,33 +16662,33 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>4.800</t>
+          <t>4.811</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>0.328 (P = 0.001)</t>
+          <t>0.209 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr">
         <is>
-          <t>0.454 (P = 0.000)</t>
+          <t>0.204 (P = 0.004)</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>1.308 (P = 0.600)</t>
+          <t>0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>0.031 (P = 0.970)</t>
+          <t>0.278 (P = 0.399)</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>0.195 (P = 0.216)</t>
+          <t>0.209 (P = 0.009)</t>
         </is>
       </c>
     </row>
@@ -17103,39 +17103,39 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.790</t>
+          <t>4.658</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4.603</t>
+          <t>4.610</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>2.667</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>4.051</t>
+          <t>4.278</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>5.029</t>
+          <t>4.747</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>4.890</t>
+          <t>4.903</t>
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>4.822</t>
+          <t>4.829</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -17150,33 +17150,33 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>5.018</t>
+          <t>5.040</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>0.100 (P = 0.257)</t>
+          <t>0.246 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
-          <t>0.219 (P = 0.062)</t>
+          <t>0.220 (P = 0.004)</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>1.167 (P = 0.672)</t>
+          <t>1.000 (P = 0.225)</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>0.004 (P = 0.995)</t>
+          <t>-0.222 (P = 0.409)</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>-0.011 (P = 0.935)</t>
+          <t>0.293 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -17591,39 +17591,39 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7.089</t>
+          <t>7.381</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>7.039</t>
+          <t>7.454</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5.231</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>7.643</t>
+          <t>7.474</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>7.154</t>
+          <t>7.303</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>7.609</t>
+          <t>7.631</t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
-          <t>7.690</t>
+          <t>7.734</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -17638,33 +17638,33 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>7.506</t>
+          <t>7.505</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>0.520 (P = 0.000)</t>
+          <t>0.249 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
-          <t>0.651 (P = 0.000)</t>
+          <t>0.280 (P = 0.000)</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>0.769 (P = 0.691)</t>
+          <t>0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>0.252 (P = 0.730)</t>
+          <t>0.421 (P = 0.057)</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>0.352 (P = 0.006)</t>
+          <t>0.202 (P = 0.011)</t>
         </is>
       </c>
     </row>
@@ -18079,39 +18079,39 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>6.901</t>
+          <t>7.441</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>6.898</t>
+          <t>7.567</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>5.909</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>8.350</t>
+          <t>8.647</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>6.874</t>
+          <t>7.239</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>7.377</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>7.554</t>
+          <t>7.681</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -18121,38 +18121,38 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>7.684</t>
+          <t>8.059</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>7.129</t>
+          <t>7.207</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.000)</t>
+          <t>0.039 (P = 0.672)</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr">
         <is>
-          <t>0.656 (P = 0.000)</t>
+          <t>0.115 (P = 0.384)</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>3.758 (P = 0.006)</t>
+          <t>1.667 (P = 0.300)</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>-0.666 (P = 0.301)</t>
+          <t>-0.588 (P = 0.317)</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>0.254 (P = 0.100)</t>
+          <t>-0.031 (P = 0.816)</t>
         </is>
       </c>
     </row>
@@ -18566,80 +18566,80 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>6.288</t>
+          <t>6.622</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6.524</t>
+          <t>6.871</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3.300</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.529</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.023</t>
+          <t>6.323</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6.010</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
-          <t>6.143</t>
+          <t>6.280</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>6.167</t>
+          <t>6.353</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>5.846</t>
+          <t>5.917</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>-0.278 (P = 0.012)</t>
+          <t>-0.516 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr">
         <is>
-          <t>-0.380 (P = 0.009)</t>
+          <t>-0.591 (P = 0.000)</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>2.200 (P = 0.642)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>-1.490 (P = 0.085)</t>
+          <t>-1.176 (P = 0.257)</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>-0.177 (P = 0.302)</t>
+          <t>-0.406 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -19054,39 +19054,39 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>6.737</t>
+          <t>7.071</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6.964</t>
+          <t>7.424</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>3.615</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>7.583</t>
+          <t>7.867</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>6.484</t>
+          <t>6.647</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>6.723</t>
+          <t>6.779</t>
         </is>
       </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
-          <t>6.915</t>
+          <t>6.990</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -19096,38 +19096,38 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>6.222</t>
+          <t>6.800</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>6.527</t>
+          <t>6.548</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>-0.013 (P = 0.892)</t>
+          <t>-0.292 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr">
         <is>
-          <t>-0.048 (P = 0.689)</t>
+          <t>-0.435 (P = 0.000)</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>0.385 (P = 0.913)</t>
+          <t>0.333 (P = 0.742)</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>-1.361 (P = 0.113)</t>
+          <t>-1.067 (P = 0.161)</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>0.044 (P = 0.779)</t>
+          <t>-0.099 (P = 0.440)</t>
         </is>
       </c>
     </row>
@@ -19542,39 +19542,39 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5.826</t>
+          <t>6.177</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>6.191</t>
+          <t>6.726</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3.538</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>7.659</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.387</t>
+          <t>5.458</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>5.766</t>
+          <t>5.798</t>
         </is>
       </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
-          <t>6.116</t>
+          <t>6.163</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -19584,38 +19584,38 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>7.579</t>
+          <t>7.944</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>5.255</t>
+          <t>5.270</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>-0.061 (P = 0.624)</t>
+          <t>-0.379 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr">
         <is>
-          <t>-0.075 (P = 0.644)</t>
+          <t>-0.562 (P = 0.000)</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>2.128 (P = 0.557)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>-0.080 (P = 0.921)</t>
+          <t>0.278 (P = 0.288)</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>-0.133 (P = 0.488)</t>
+          <t>-0.188 (P = 0.087)</t>
         </is>
       </c>
     </row>
@@ -20030,39 +20030,39 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>5.790</t>
+          <t>5.835</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>6.152</t>
+          <t>6.302</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>3.077</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>4.324</t>
+          <t>3.067</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>5.416</t>
+          <t>5.388</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>5.615</t>
+          <t>5.636</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
-          <t>6.041</t>
+          <t>6.057</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -20072,38 +20072,38 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>4.529</t>
+          <t>4.533</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>5.150</t>
+          <t>5.187</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.130)</t>
+          <t>-0.199 (P = 0.040)</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr">
         <is>
-          <t>-0.111 (P = 0.460)</t>
+          <t>-0.245 (P = 0.062)</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>-0.077 (P = 0.971)</t>
+          <t>-0.333 (P = 0.667)</t>
         </is>
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>0.205 (P = 0.830)</t>
+          <t>1.467 (P = 0.045)</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>-0.266 (P = 0.139)</t>
+          <t>-0.201 (P = 0.171)</t>
         </is>
       </c>
     </row>
@@ -20518,39 +20518,39 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2.786</t>
+          <t>2.591</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2.615</t>
+          <t>2.403</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2.385</t>
+          <t>3.333</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2.378</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2.998</t>
+          <t>2.827</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2.181</t>
+          <t>2.123</t>
         </is>
       </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1.929</t>
+          <t>1.851</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -20560,38 +20560,38 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>1.833</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2.503</t>
+          <t>2.451</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>-0.605 (P = 0.000)</t>
+          <t>-0.468 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr">
         <is>
-          <t>-0.686 (P = 0.000)</t>
+          <t>-0.552 (P = 0.000)</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>0.615 (P = 0.861)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>-0.545 (P = 0.501)</t>
+          <t>-0.250 (P = 0.483)</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>-0.494 (P = 0.002)</t>
+          <t>-0.376 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -21006,39 +21006,39 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>7.376</t>
+          <t>7.623</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>7.610</t>
+          <t>8.025</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>5.385</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>7.636</t>
+          <t>7.833</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>7.120</t>
+          <t>7.156</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>7.392</t>
+          <t>7.473</t>
         </is>
       </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
-          <t>7.593</t>
+          <t>7.684</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -21048,38 +21048,38 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>7.125</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>7.184</t>
+          <t>7.237</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>0.016 (P = 0.869)</t>
+          <t>-0.150 (P = 0.041)</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr">
         <is>
-          <t>-0.017 (P = 0.888)</t>
+          <t>-0.340 (P = 0.000)</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>-1.718 (P = 0.653)</t>
+          <t>-2.667 (P = 0.347)</t>
         </is>
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>-0.511 (P = 0.610)</t>
+          <t>0.167 (P = 0.748)</t>
         </is>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>0.064 (P = 0.672)</t>
+          <t>0.082 (P = 0.481)</t>
         </is>
       </c>
     </row>
@@ -21494,39 +21494,39 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>6.903</t>
+          <t>7.021</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>7.169</t>
+          <t>7.310</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>4.333</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>7.472</t>
+          <t>7.857</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>6.601</t>
+          <t>6.673</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>6.718</t>
+          <t>6.825</t>
         </is>
       </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
-          <t>6.818</t>
+          <t>6.949</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -21536,38 +21536,38 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>6.824</t>
+          <t>6.929</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>6.618</t>
+          <t>6.706</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>-0.186 (P = 0.058)</t>
+          <t>-0.196 (P = 0.042)</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr">
         <is>
-          <t>-0.352 (P = 0.006)</t>
+          <t>-0.361 (P = 0.005)</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>-1.333 (P = 0.605)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>-0.649 (P = 0.421)</t>
+          <t>-0.929 (P = 0.247)</t>
         </is>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>0.017 (P = 0.912)</t>
+          <t>0.033 (P = 0.823)</t>
         </is>
       </c>
     </row>
@@ -21982,39 +21982,39 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5.446</t>
+          <t>5.763</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>5.721</t>
+          <t>6.142</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2.308</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>5.958</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>5.182</t>
+          <t>5.397</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>5.708</t>
+          <t>5.747</t>
         </is>
       </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>5.954</t>
+          <t>6.074</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -22024,38 +22024,38 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>5.188</t>
+          <t>5.125</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>5.451</t>
+          <t>5.440</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>0.261 (P = 0.041)</t>
+          <t>-0.017 (P = 0.875)</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
       <c r="R223" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.169)</t>
+          <t>-0.068 (P = 0.627)</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>1.026 (P = 0.759)</t>
+          <t>-1.000 (P = 0.000)</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>-0.771 (P = 0.553)</t>
+          <t>0.125 (P = 0.763)</t>
         </is>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>0.269 (P = 0.167)</t>
+          <t>0.043 (P = 0.789)</t>
         </is>
       </c>
     </row>
@@ -22470,39 +22470,39 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5.366</t>
+          <t>5.486</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>5.594</t>
+          <t>5.676</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.615</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>5.946</t>
+          <t>5.800</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>5.112</t>
+          <t>5.255</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>5.072</t>
         </is>
       </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
-          <t>5.154</t>
+          <t>5.198</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -22512,38 +22512,38 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>5.294</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>4.900</t>
+          <t>4.927</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.009)</t>
+          <t>-0.415 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr"/>
       <c r="R228" t="inlineStr">
         <is>
-          <t>-0.440 (P = 0.008)</t>
+          <t>-0.478 (P = 0.000)</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>0.385 (P = 0.897)</t>
+          <t>-1.667 (P = 0.444)</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>-0.652 (P = 0.589)</t>
+          <t>-0.467 (P = 0.450)</t>
         </is>
       </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>-0.212 (P = 0.263)</t>
+          <t>-0.328 (P = 0.019)</t>
         </is>
       </c>
     </row>
@@ -22958,80 +22958,80 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>7.226</t>
+          <t>7.281</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7.247</t>
+          <t>7.319</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>6.645</t>
+          <t>6.462</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>7.208</t>
+          <t>7.260</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>7.288</t>
+          <t>7.338</t>
         </is>
       </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.210</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>5.667</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>6.611</t>
+          <t>6.462</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>7.490</t>
+          <t>7.525</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>0.062 (P = 0.457)</t>
+          <t>0.057 (P = 0.509)</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr">
         <is>
-          <t>-0.091 (P = 0.415)</t>
+          <t>-0.108 (P = 0.344)</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>-2.533 (P = 0.075)</t>
+          <t>-3.000 (P = 0.000)</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>-0.034 (P = 0.964)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U233" t="inlineStr">
         <is>
-          <t>0.282 (P = 0.027)</t>
+          <t>0.265 (P = 0.045)</t>
         </is>
       </c>
     </row>
@@ -23446,39 +23446,39 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7.161</t>
+          <t>7.388</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>7.090</t>
+          <t>7.270</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>7.385</t>
+          <t>7.538</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>7.240</t>
+          <t>7.504</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>7.748</t>
+          <t>7.824</t>
         </is>
       </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
-          <t>7.775</t>
+          <t>7.870</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -23488,38 +23488,38 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>6.941</t>
+          <t>8.231</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>7.756</t>
+          <t>7.771</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>0.588 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr">
         <is>
-          <t>0.684 (P = 0.000)</t>
+          <t>0.600 (P = 0.000)</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>1.667 (P = 0.264)</t>
+          <t>-1.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>-0.443 (P = 0.641)</t>
+          <t>0.692 (P = 0.382)</t>
         </is>
       </c>
       <c r="U238" t="inlineStr">
         <is>
-          <t>0.516 (P = 0.000)</t>
+          <t>0.268 (P = 0.057)</t>
         </is>
       </c>
     </row>
@@ -23934,39 +23934,39 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.420</t>
+          <t>6.514</t>
         </is>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>6.540</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>3.100</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>6.346</t>
+          <t>6.200</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>6.485</t>
+          <t>6.511</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>6.093</t>
+          <t>6.215</t>
         </is>
       </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
-          <t>6.089</t>
+          <t>6.205</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -23976,38 +23976,38 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>4.875</t>
+          <t>5.600</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>6.162</t>
+          <t>6.260</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.001)</t>
+          <t>-0.299 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr">
         <is>
-          <t>-0.281 (P = 0.034)</t>
+          <t>-0.335 (P = 0.010)</t>
         </is>
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>-0.100 (P = 0.969)</t>
+          <t>-1.000 (P = 0.000)</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>-1.471 (P = 0.094)</t>
+          <t>-0.600 (P = 0.460)</t>
         </is>
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>-0.324 (P = 0.036)</t>
+          <t>-0.251 (P = 0.110)</t>
         </is>
       </c>
     </row>
@@ -24422,39 +24422,39 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>5.260</t>
+          <t>5.367</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>5.544</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.167</t>
+          <t>2.667</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>6.857</t>
+          <t>7.538</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>4.980</t>
+          <t>5.095</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>4.788</t>
+          <t>4.814</t>
         </is>
       </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
-          <t>4.899</t>
+          <t>4.876</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -24464,38 +24464,38 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>5.471</t>
+          <t>6.385</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>4.635</t>
+          <t>4.700</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>-0.473 (P = 0.000)</t>
+          <t>-0.553 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr"/>
       <c r="R248" t="inlineStr">
         <is>
-          <t>-0.601 (P = 0.000)</t>
+          <t>-0.668 (P = 0.000)</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.849)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>-1.387 (P = 0.201)</t>
+          <t>-1.154 (P = 0.154)</t>
         </is>
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>-0.346 (P = 0.066)</t>
+          <t>-0.395 (P = 0.002)</t>
         </is>
       </c>
     </row>
@@ -24909,39 +24909,39 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>7.156</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.561</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.455</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>7.289</t>
+          <t>6.944</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>7.055</t>
+          <t>7.245</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>7.449</t>
+          <t>7.535</t>
         </is>
       </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.692</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -24951,38 +24951,38 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>7.421</t>
+          <t>7.556</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>7.312</t>
+          <t>7.362</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>0.293 (P = 0.000)</t>
+          <t>0.133 (P = 0.065)</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr">
         <is>
-          <t>0.311 (P = 0.004)</t>
+          <t>0.130 (P = 0.141)</t>
         </is>
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>1.879 (P = 0.404)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T253" t="inlineStr">
         <is>
-          <t>0.132 (P = 0.867)</t>
+          <t>0.611 (P = 0.012)</t>
         </is>
       </c>
       <c r="U253" t="inlineStr">
         <is>
-          <t>0.258 (P = 0.046)</t>
+          <t>0.117 (P = 0.335)</t>
         </is>
       </c>
     </row>
@@ -25396,39 +25396,39 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7.189</t>
+          <t>7.723</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>6.925</t>
+          <t>7.511</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>7.357</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>7.632</t>
+          <t>7.833</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>7.481</t>
+          <t>7.970</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>7.887</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
-          <t>7.695</t>
+          <t>7.787</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -25438,38 +25438,38 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>7.842</t>
+          <t>7.889</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>8.128</t>
+          <t>8.162</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>0.698 (P = 0.000)</t>
+          <t>0.232 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr">
         <is>
-          <t>0.771 (P = 0.000)</t>
+          <t>0.277 (P = 0.000)</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>-0.024 (P = 0.985)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>0.211 (P = 0.659)</t>
+          <t>0.056 (P = 0.859)</t>
         </is>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>0.647 (P = 0.000)</t>
+          <t>0.192 (P = 0.015)</t>
         </is>
       </c>
     </row>
@@ -25883,39 +25883,39 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>5.486</t>
+          <t>5.389</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>5.399</t>
+          <t>5.342</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>5.077</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>4.088</t>
+          <t>4.800</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>5.611</t>
+          <t>5.472</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>5.811</t>
+          <t>5.884</t>
         </is>
       </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
-          <t>5.803</t>
+          <t>5.880</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -25925,38 +25925,38 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>5.211</t>
+          <t>5.067</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>5.840</t>
+          <t>5.913</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.000)</t>
+          <t>0.496 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr">
         <is>
-          <t>0.404 (P = 0.000)</t>
+          <t>0.538 (P = 0.000)</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>1.923 (P = 0.097)</t>
+          <t>2.667 (P = 0.287)</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
         <is>
-          <t>1.122 (P = 0.087)</t>
+          <t>0.267 (P = 0.628)</t>
         </is>
       </c>
       <c r="U263" t="inlineStr">
         <is>
-          <t>0.229 (P = 0.094)</t>
+          <t>0.441 (P = 0.003)</t>
         </is>
       </c>
     </row>
@@ -26370,39 +26370,39 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>6.506</t>
+          <t>6.393</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>6.532</t>
+          <t>6.387</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>4.786</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>5.189</t>
+          <t>5.875</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>6.513</t>
+          <t>6.434</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>6.901</t>
         </is>
       </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
-          <t>6.991</t>
+          <t>6.986</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -26412,38 +26412,38 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>6.474</t>
+          <t>6.312</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>6.822</t>
+          <t>6.823</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>0.401 (P = 0.000)</t>
+          <t>0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr"/>
       <c r="R268" t="inlineStr">
         <is>
-          <t>0.459 (P = 0.000)</t>
+          <t>0.599 (P = 0.000)</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
         <is>
-          <t>1.548 (P = 0.252)</t>
+          <t>2.000 (P = 0.438)</t>
         </is>
       </c>
       <c r="T268" t="inlineStr">
         <is>
-          <t>1.284 (P = 0.090)</t>
+          <t>0.438 (P = 0.466)</t>
         </is>
       </c>
       <c r="U268" t="inlineStr">
         <is>
-          <t>0.309 (P = 0.017)</t>
+          <t>0.389 (P = 0.001)</t>
         </is>
       </c>
     </row>
@@ -26858,39 +26858,39 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>3.605</t>
+          <t>3.741</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>3.460</t>
+          <t>3.669</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2.667</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>3.781</t>
+          <t>5.077</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>3.760</t>
+          <t>3.766</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>3.523</t>
+          <t>3.570</t>
         </is>
       </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
-          <t>3.371</t>
+          <t>3.384</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -26900,38 +26900,38 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>4.611</t>
+          <t>5.154</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>3.654</t>
+          <t>3.713</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>-0.082 (P = 0.493)</t>
+          <t>-0.171 (P = 0.107)</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr"/>
       <c r="R273" t="inlineStr">
         <is>
-          <t>-0.089 (P = 0.577)</t>
+          <t>-0.285 (P = 0.065)</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>1.333 (P = 0.602)</t>
+          <t>-0.333 (P = 0.667)</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>0.830 (P = 0.401)</t>
+          <t>0.077 (P = 0.861)</t>
         </is>
       </c>
       <c r="U273" t="inlineStr">
         <is>
-          <t>-0.106 (P = 0.565)</t>
+          <t>-0.053 (P = 0.725)</t>
         </is>
       </c>
     </row>
@@ -27346,39 +27346,39 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5.936</t>
+          <t>5.856</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>5.718</t>
+          <t>5.552</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>4.389</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>6.194</t>
+          <t>6.316</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>6.095</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
-          <t>5.873</t>
+          <t>5.923</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -27388,38 +27388,38 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>4.778</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>6.441</t>
+          <t>6.603</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>0.159 (P = 0.147)</t>
+          <t>0.346 (P = 0.004)</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr"/>
       <c r="R278" t="inlineStr">
         <is>
-          <t>0.155 (P = 0.291)</t>
+          <t>0.371 (P = 0.018)</t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
         <is>
-          <t>-1.917 (P = 0.415)</t>
+          <t>-0.333 (P = 0.899)</t>
         </is>
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>0.389 (P = 0.693)</t>
+          <t>1.250 (P = 0.261)</t>
         </is>
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>0.246 (P = 0.137)</t>
+          <t>0.286 (P = 0.132)</t>
         </is>
       </c>
     </row>
@@ -27834,39 +27834,39 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>7.273</t>
+          <t>7.565</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>7.205</t>
+          <t>7.529</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>7.583</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>7.357</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>7.336</t>
+          <t>7.607</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>7.657</t>
+          <t>7.856</t>
         </is>
       </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
-          <t>7.530</t>
+          <t>7.760</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -27876,38 +27876,38 @@
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>7.632</t>
+          <t>8.062</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>7.814</t>
+          <t>7.959</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>0.384 (P = 0.000)</t>
+          <t>0.290 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr"/>
       <c r="R283" t="inlineStr">
         <is>
-          <t>0.324 (P = 0.014)</t>
+          <t>0.230 (P = 0.076)</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
         <is>
-          <t>-0.583 (P = 0.676)</t>
+          <t>-0.667 (P = 0.691)</t>
         </is>
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.742)</t>
+          <t>0.562 (P = 0.227)</t>
         </is>
       </c>
       <c r="U283" t="inlineStr">
         <is>
-          <t>0.477 (P = 0.001)</t>
+          <t>0.352 (P = 0.019)</t>
         </is>
       </c>
     </row>
@@ -28322,39 +28322,39 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>7.521</t>
+          <t>7.874</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>7.539</t>
+          <t>8.043</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>5.182</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>7.444</t>
+          <t>7.941</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>7.517</t>
+          <t>7.681</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>8.020</t>
+          <t>8.103</t>
         </is>
       </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
-          <t>8.143</t>
+          <t>8.211</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -28364,38 +28364,38 @@
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>8.053</t>
+          <t>8.353</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>7.898</t>
+          <t>7.995</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.000)</t>
+          <t>0.229 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr">
         <is>
-          <t>0.603 (P = 0.000)</t>
+          <t>0.169 (P = 0.054)</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>-1.182 (P = 0.713)</t>
+          <t>-2.667 (P = 0.431)</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>0.608 (P = 0.425)</t>
+          <t>0.412 (P = 0.464)</t>
         </is>
       </c>
       <c r="U288" t="inlineStr">
         <is>
-          <t>0.381 (P = 0.002)</t>
+          <t>0.314 (P = 0.008)</t>
         </is>
       </c>
     </row>
@@ -28810,39 +28810,39 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>6.631</t>
+          <t>7.124</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>6.802</t>
+          <t>7.376</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3.615</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>7.568</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>6.437</t>
+          <t>6.822</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>7.196</t>
+          <t>7.287</t>
         </is>
       </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
-          <t>7.425</t>
+          <t>7.526</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -28852,38 +28852,38 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>7.611</t>
+          <t>8.188</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>6.916</t>
+          <t>6.983</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>0.565 (P = 0.000)</t>
+          <t>0.162 (P = 0.017)</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr">
         <is>
-          <t>0.623 (P = 0.000)</t>
+          <t>0.150 (P = 0.103)</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>1.718 (P = 0.626)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>0.044 (P = 0.962)</t>
+          <t>0.688 (P = 0.329)</t>
         </is>
       </c>
       <c r="U293" t="inlineStr">
         <is>
-          <t>0.480 (P = 0.006)</t>
+          <t>0.161 (P = 0.119)</t>
         </is>
       </c>
     </row>
@@ -29298,39 +29298,39 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6.448</t>
+          <t>6.938</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>6.670</t>
+          <t>7.173</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2.923</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>7.263</t>
+          <t>7.778</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>6.206</t>
+          <t>6.655</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>6.821</t>
+          <t>6.889</t>
         </is>
       </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
-          <t>7.014</t>
+          <t>7.093</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -29340,38 +29340,38 @@
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>6.684</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>6.608</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>0.374 (P = 0.001)</t>
+          <t>-0.049 (P = 0.493)</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="inlineStr">
         <is>
-          <t>0.343 (P = 0.020)</t>
+          <t>-0.080 (P = 0.431)</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>1.744 (P = 0.618)</t>
+          <t>0.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>-0.579 (P = 0.565)</t>
+          <t>-0.778 (P = 0.049)</t>
         </is>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>0.403 (P = 0.029)</t>
+          <t>0.012 (P = 0.908)</t>
         </is>
       </c>
     </row>
@@ -29786,39 +29786,39 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.833</t>
+          <t>6.278</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>5.743</t>
+          <t>6.214</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.545</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.933</t>
+          <t>6.583</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>5.932</t>
+          <t>6.342</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>5.505</t>
+          <t>5.664</t>
         </is>
       </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
-          <t>5.335</t>
+          <t>5.517</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -29828,38 +29828,38 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>5.400</t>
+          <t>5.583</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>5.700</t>
+          <t>5.810</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>-0.327 (P = 0.005)</t>
+          <t>-0.614 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="inlineStr">
         <is>
-          <t>-0.408 (P = 0.009)</t>
+          <t>-0.697 (P = 0.000)</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t>2.455 (P = 0.366)</t>
+          <t>1.000 (P = 0.225)</t>
         </is>
       </c>
       <c r="T303" t="inlineStr">
         <is>
-          <t>-0.533 (P = 0.646)</t>
+          <t>-1.000 (P = 0.339)</t>
         </is>
       </c>
       <c r="U303" t="inlineStr">
         <is>
-          <t>-0.232 (P = 0.191)</t>
+          <t>-0.532 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -30274,80 +30274,80 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>5.702</t>
+          <t>5.720</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>5.880</t>
+          <t>5.657</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3.833</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>6.091</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>5.553</t>
+          <t>5.781</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>4.907</t>
+          <t>5.211</t>
         </is>
       </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
-          <t>4.886</t>
+          <t>5.145</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>4.571</t>
+          <t>5.182</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>4.932</t>
+          <t>5.276</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>-0.796 (P = 0.000)</t>
+          <t>-0.508 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q308" t="inlineStr"/>
       <c r="R308" t="inlineStr">
         <is>
-          <t>-0.994 (P = 0.000)</t>
+          <t>-0.512 (P = 0.002)</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t>3.167 (P = 0.095)</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="T308" t="inlineStr">
         <is>
-          <t>-0.929 (P = 0.429)</t>
+          <t>-0.909 (P = 0.444)</t>
         </is>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>-0.621 (P = 0.001)</t>
+          <t>-0.505 (P = 0.003)</t>
         </is>
       </c>
     </row>
@@ -30762,39 +30762,39 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.038</t>
+          <t>6.125</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>6.123</t>
+          <t>6.235</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>1.909</t>
+          <t>2.667</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>5.839</t>
+          <t>5.923</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>5.968</t>
+          <t>6.039</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>5.392</t>
+          <t>5.491</t>
         </is>
       </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
-          <t>5.253</t>
+          <t>5.345</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -30804,38 +30804,38 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>5.059</t>
+          <t>6.154</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>5.592</t>
+          <t>5.647</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>-0.646 (P = 0.000)</t>
+          <t>-0.635 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr"/>
       <c r="R313" t="inlineStr">
         <is>
-          <t>-0.870 (P = 0.000)</t>
+          <t>-0.890 (P = 0.000)</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>1.091 (P = 0.661)</t>
+          <t>0.333 (P = 0.910)</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>-0.780 (P = 0.476)</t>
+          <t>0.231 (P = 0.610)</t>
         </is>
       </c>
       <c r="U313" t="inlineStr">
         <is>
-          <t>-0.377 (P = 0.021)</t>
+          <t>-0.392 (P = 0.013)</t>
         </is>
       </c>
     </row>
@@ -31250,39 +31250,39 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>4.972</t>
+          <t>5.167</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>5.073</t>
+          <t>5.346</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>5.037</t>
+          <t>4.308</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>4.888</t>
+          <t>5.013</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>5.459</t>
+          <t>5.474</t>
         </is>
       </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
-          <t>5.793</t>
+          <t>5.810</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -31292,38 +31292,38 @@
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>4.308</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>5.100</t>
+          <t>5.175</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>0.487 (P = 0.000)</t>
+          <t>0.306 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr"/>
       <c r="R318" t="inlineStr">
         <is>
-          <t>0.720 (P = 0.000)</t>
+          <t>0.464 (P = 0.001)</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>0.500 (P = 0.896)</t>
+          <t>-1.500 (P = 0.742)</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>-0.037 (P = 0.973)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U318" t="inlineStr">
         <is>
-          <t>0.212 (P = 0.266)</t>
+          <t>0.161 (P = 0.306)</t>
         </is>
       </c>
     </row>
@@ -31738,39 +31738,39 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>6.369</t>
+          <t>6.862</t>
         </is>
       </c>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>6.510</t>
+          <t>7.078</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>2.917</t>
+          <t>5.500</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>6.722</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>6.228</t>
+          <t>6.605</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>6.422</t>
+          <t>6.576</t>
         </is>
       </c>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
-          <t>6.668</t>
+          <t>6.864</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -31780,28 +31780,28 @@
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>6.722</t>
+          <t>7.250</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>6.126</t>
+          <t>6.226</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>0.053 (P = 0.602)</t>
+          <t>-0.286 (P = 0.002)</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr"/>
       <c r="R323" t="inlineStr">
         <is>
-          <t>0.158 (P = 0.231)</t>
+          <t>-0.214 (P = 0.061)</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>2.083 (P = 0.611)</t>
+          <t>-0.500 (P = 0.795)</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
@@ -31811,7 +31811,7 @@
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>-0.102 (P = 0.524)</t>
+          <t>-0.379 (P = 0.010)</t>
         </is>
       </c>
     </row>
@@ -32226,39 +32226,39 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>4.338</t>
+          <t>4.534</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>4.302</t>
+          <t>4.455</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>0.455</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>5.429</t>
+          <t>5.182</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>4.374</t>
+          <t>4.620</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>4.523</t>
+          <t>4.549</t>
         </is>
       </c>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
-          <t>4.505</t>
+          <t>4.516</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -32268,38 +32268,38 @@
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>5.125</t>
+          <t>6.182</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>4.536</t>
+          <t>4.552</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.155)</t>
+          <t>0.016 (P = 0.871)</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr"/>
       <c r="R328" t="inlineStr">
         <is>
-          <t>0.203 (P = 0.239)</t>
+          <t>0.061 (P = 0.670)</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>1.879 (P = 0.325)</t>
+          <t>1.333 (P = 0.270)</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>-0.304 (P = 0.792)</t>
+          <t>1.000 (P = 0.353)</t>
         </is>
       </c>
       <c r="U328" t="inlineStr">
         <is>
-          <t>0.162 (P = 0.418)</t>
+          <t>-0.068 (P = 0.599)</t>
         </is>
       </c>
     </row>
@@ -32714,39 +32714,39 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>5.135</t>
+          <t>5.561</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>5.204</t>
+          <t>5.768</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2.600</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>5.947</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>5.076</t>
+          <t>5.343</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>5.809</t>
+          <t>5.758</t>
         </is>
       </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
-          <t>6.022</t>
+          <t>6.017</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -32756,38 +32756,38 @@
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>6.077</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>5.579</t>
+          <t>5.483</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>0.674 (P = 0.000)</t>
+          <t>0.197 (P = 0.079)</t>
         </is>
       </c>
       <c r="Q333" t="inlineStr"/>
       <c r="R333" t="inlineStr">
         <is>
-          <t>0.819 (P = 0.000)</t>
+          <t>0.249 (P = 0.155)</t>
         </is>
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>0.900 (P = 0.842)</t>
+          <t>-1.000 (P = 0.500)</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>0.130 (P = 0.925)</t>
+          <t>1.000 (P = 0.111)</t>
         </is>
       </c>
       <c r="U333" t="inlineStr">
         <is>
-          <t>0.503 (P = 0.014)</t>
+          <t>0.139 (P = 0.340)</t>
         </is>
       </c>
     </row>
@@ -33202,39 +33202,39 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>5.802</t>
+          <t>5.569</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>6.037</t>
+          <t>5.759</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>4.087</t>
+          <t>1.889</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>5.608</t>
+          <t>5.490</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>5.165</t>
+          <t>5.141</t>
         </is>
       </c>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
-          <t>5.344</t>
+          <t>5.359</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -33244,38 +33244,38 @@
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>3.154</t>
+          <t>2.889</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>5.025</t>
+          <t>4.980</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>-0.638 (P = 0.000)</t>
+          <t>-0.427 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr"/>
       <c r="R338" t="inlineStr">
         <is>
-          <t>-0.693 (P = 0.000)</t>
+          <t>-0.401 (P = 0.022)</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>2.500 (P = 0.170)</t>
+          <t>3.000 (P = 0.205)</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>-0.933 (P = 0.377)</t>
+          <t>1.000 (P = 0.421)</t>
         </is>
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>-0.583 (P = 0.001)</t>
+          <t>-0.510 (P = 0.004)</t>
         </is>
       </c>
     </row>
@@ -33690,39 +33690,39 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>6.438</t>
+          <t>6.309</t>
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>6.456</t>
+          <t>6.384</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6.167</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>5.963</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>6.424</t>
+          <t>6.234</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>6.286</t>
+          <t>6.317</t>
         </is>
       </c>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
-          <t>6.344</t>
+          <t>6.406</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -33732,38 +33732,38 @@
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>5.533</t>
+          <t>6.083</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>6.249</t>
+          <t>6.239</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>-0.152 (P = 0.138)</t>
+          <t>0.008 (P = 0.944)</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr"/>
       <c r="R343" t="inlineStr">
         <is>
-          <t>-0.112 (P = 0.382)</t>
+          <t>0.022 (P = 0.885)</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>-0.167 (P = 0.948)</t>
+          <t>-1.000 (P = 0.705)</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>-0.430 (P = 0.672)</t>
+          <t>-0.167 (P = 0.864)</t>
         </is>
       </c>
       <c r="U343" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.290)</t>
+          <t>0.005 (P = 0.975)</t>
         </is>
       </c>
     </row>
@@ -34178,80 +34178,80 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>6.204</t>
+          <t>6.366</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>6.417</t>
+          <t>6.537</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.545</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>5.812</t>
+          <t>5.462</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>6.004</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>6.029</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
-          <t>6.140</t>
+          <t>6.257</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>3.333</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>6.118</t>
+          <t>5.846</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>5.910</t>
+          <t>5.963</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>-0.175 (P = 0.098)</t>
+          <t>-0.264 (P = 0.019)</t>
         </is>
       </c>
       <c r="Q348" t="inlineStr"/>
       <c r="R348" t="inlineStr">
         <is>
-          <t>-0.277 (P = 0.044)</t>
+          <t>-0.280 (P = 0.050)</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>-1.212 (P = 0.636)</t>
+          <t>-5.500 (P = 0.170)</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>0.305 (P = 0.745)</t>
+          <t>0.385 (P = 0.734)</t>
         </is>
       </c>
       <c r="U348" t="inlineStr">
         <is>
-          <t>-0.094 (P = 0.574)</t>
+          <t>-0.239 (P = 0.180)</t>
         </is>
       </c>
     </row>
@@ -34666,39 +34666,39 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>5.095</t>
+          <t>5.139</t>
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>5.288</t>
+          <t>5.292</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3.462</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>4.567</t>
+          <t>4.636</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>4.928</t>
+          <t>5.003</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>5.115</t>
+          <t>5.137</t>
         </is>
       </c>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
-          <t>5.277</t>
+          <t>5.352</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -34708,38 +34708,38 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>5.062</t>
+          <t>4.636</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>4.945</t>
+          <t>4.952</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>0.020 (P = 0.858)</t>
+          <t>-0.001 (P = 0.990)</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr"/>
       <c r="R353" t="inlineStr">
         <is>
-          <t>-0.011 (P = 0.940)</t>
+          <t>0.060 (P = 0.713)</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>0.205 (P = 0.928)</t>
+          <t>-1.333 (P = 0.057)</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>0.496 (P = 0.652)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="U353" t="inlineStr">
         <is>
-          <t>0.017 (P = 0.925)</t>
+          <t>-0.051 (P = 0.763)</t>
         </is>
       </c>
     </row>
@@ -35154,80 +35154,80 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>4.896</t>
+          <t>4.899</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>5.027</t>
+          <t>5.035</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>3.182</t>
+          <t>7.000</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>3.467</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>4.778</t>
+          <t>4.804</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>4.593</t>
+          <t>4.583</t>
         </is>
       </c>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
-          <t>4.728</t>
+          <t>4.695</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>4.333</t>
+          <t>3.500</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>4.333</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>4.444</t>
+          <t>4.483</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>-0.303 (P = 0.011)</t>
+          <t>-0.316 (P = 0.009)</t>
         </is>
       </c>
       <c r="Q358" t="inlineStr"/>
       <c r="R358" t="inlineStr">
         <is>
-          <t>-0.299 (P = 0.055)</t>
+          <t>-0.340 (P = 0.039)</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
         <is>
-          <t>1.152 (P = 0.666)</t>
+          <t>-3.500 (P = 0.258)</t>
         </is>
       </c>
       <c r="T358" t="inlineStr">
         <is>
-          <t>0.867 (P = 0.402)</t>
+          <t>1.250 (P = 0.297)</t>
         </is>
       </c>
       <c r="U358" t="inlineStr">
         <is>
-          <t>-0.334 (P = 0.074)</t>
+          <t>-0.321 (P = 0.079)</t>
         </is>
       </c>
     </row>
@@ -35642,39 +35642,39 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>6.972</t>
+          <t>7.327</t>
         </is>
       </c>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>7.131</t>
+          <t>7.487</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3.800</t>
+          <t>6.000</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>7.027</t>
+          <t>7.294</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>6.803</t>
+          <t>7.140</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>7.672</t>
+          <t>7.763</t>
         </is>
       </c>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
-          <t>7.788</t>
+          <t>7.885</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -35684,38 +35684,38 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>7.211</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>7.565</t>
+          <t>7.622</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>0.700 (P = 0.000)</t>
+          <t>0.436 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q363" t="inlineStr"/>
       <c r="R363" t="inlineStr">
         <is>
-          <t>0.657 (P = 0.000)</t>
+          <t>0.398 (P = 0.000)</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t>1.200 (P = 0.706)</t>
+          <t>-1.000 (P = 0.000)</t>
         </is>
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.843)</t>
+          <t>0.706 (P = 0.035)</t>
         </is>
       </c>
       <c r="U363" t="inlineStr">
         <is>
-          <t>0.763 (P = 0.000)</t>
+          <t>0.482 (P = 0.000)</t>
         </is>
       </c>
     </row>
@@ -36130,39 +36130,39 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7.881</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>8.240</t>
+          <t>8.601</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>5.214</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>8.452</t>
+          <t>8.421</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>7.464</t>
+          <t>7.721</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>8.211</t>
+          <t>8.220</t>
         </is>
       </c>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
-          <t>8.584</t>
+          <t>8.590</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -36177,33 +36177,33 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>7.767</t>
+          <t>7.781</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>0.330 (P = 0.000)</t>
+          <t>0.015 (P = 0.811)</t>
         </is>
       </c>
       <c r="Q368" t="inlineStr"/>
       <c r="R368" t="inlineStr">
         <is>
-          <t>0.344 (P = 0.002)</t>
+          <t>-0.011 (P = 0.886)</t>
         </is>
       </c>
       <c r="S368" t="inlineStr">
         <is>
-          <t>0.119 (P = 0.969)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T368" t="inlineStr">
         <is>
-          <t>-0.294 (P = 0.699)</t>
+          <t>-0.263 (P = 0.601)</t>
         </is>
       </c>
       <c r="U368" t="inlineStr">
         <is>
-          <t>0.303 (P = 0.040)</t>
+          <t>0.060 (P = 0.569)</t>
         </is>
       </c>
     </row>
@@ -36618,39 +36618,39 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7.841</t>
+          <t>8.178</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>8.296</t>
+          <t>8.627</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>5.143</t>
+          <t>5.333</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>8.738</t>
+          <t>8.947</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>7.301</t>
+          <t>7.608</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>8.210</t>
+          <t>8.215</t>
         </is>
       </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
-          <t>8.653</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
@@ -36665,33 +36665,33 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>7.646</t>
+          <t>7.642</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>0.370 (P = 0.000)</t>
+          <t>0.037 (P = 0.589)</t>
         </is>
       </c>
       <c r="Q373" t="inlineStr"/>
       <c r="R373" t="inlineStr">
         <is>
-          <t>0.356 (P = 0.000)</t>
+          <t>0.041 (P = 0.612)</t>
         </is>
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>-0.143 (P = 0.959)</t>
+          <t>-0.333 (P = 0.667)</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>0.262 (P = 0.562)</t>
+          <t>0.053 (P = 0.858)</t>
         </is>
       </c>
       <c r="U373" t="inlineStr">
         <is>
-          <t>0.344 (P = 0.017)</t>
+          <t>0.034 (P = 0.776)</t>
         </is>
       </c>
     </row>
@@ -37106,39 +37106,39 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>8.059</t>
+          <t>8.324</t>
         </is>
       </c>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>8.299</t>
+          <t>8.570</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>5.857</t>
+          <t>6.333</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>8.548</t>
+          <t>8.368</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>7.785</t>
+          <t>8.032</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>8.334</t>
+          <t>8.352</t>
         </is>
       </c>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
@@ -37153,33 +37153,33 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>8.130</t>
+          <t>8.148</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>0.274 (P = 0.001)</t>
+          <t>0.028 (P = 0.687)</t>
         </is>
       </c>
       <c r="Q378" t="inlineStr"/>
       <c r="R378" t="inlineStr">
         <is>
-          <t>0.201 (P = 0.054)</t>
+          <t>-0.047 (P = 0.589)</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
         <is>
-          <t>1.143 (P = 0.487)</t>
+          <t>0.667 (P = 0.635)</t>
         </is>
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>-0.127 (P = 0.847)</t>
+          <t>0.053 (P = 0.889)</t>
         </is>
       </c>
       <c r="U378" t="inlineStr">
         <is>
-          <t>0.345 (P = 0.008)</t>
+          <t>0.116 (P = 0.331)</t>
         </is>
       </c>
     </row>
@@ -37594,39 +37594,39 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>8.964</t>
+          <t>9.181</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>9.134</t>
+          <t>9.357</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>7.929</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>9.095</t>
+          <t>9.053</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>8.765</t>
+          <t>8.967</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>9.152</t>
+          <t>9.156</t>
         </is>
       </c>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
-          <t>9.245</t>
+          <t>9.249</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -37641,33 +37641,33 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>9.052</t>
+          <t>9.056</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>0.188 (P = 0.001)</t>
+          <t>-0.025 (P = 0.682)</t>
         </is>
       </c>
       <c r="Q383" t="inlineStr"/>
       <c r="R383" t="inlineStr">
         <is>
-          <t>0.110 (P = 0.134)</t>
+          <t>-0.108 (P = 0.138)</t>
         </is>
       </c>
       <c r="S383" t="inlineStr">
         <is>
-          <t>-1.262 (P = 0.708)</t>
+          <t>-2.333 (P = 0.499)</t>
         </is>
       </c>
       <c r="T383" t="inlineStr">
         <is>
-          <t>0.063 (P = 0.869)</t>
+          <t>0.105 (P = 0.494)</t>
         </is>
       </c>
       <c r="U383" t="inlineStr">
         <is>
-          <t>0.287 (P = 0.002)</t>
+          <t>0.088 (P = 0.410)</t>
         </is>
       </c>
     </row>
@@ -38082,39 +38082,39 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>8.234</t>
+          <t>8.524</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>8.641</t>
+          <t>8.948</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>5.857</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>8.714</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>7.753</t>
+          <t>7.984</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>8.563</t>
+          <t>8.572</t>
         </is>
       </c>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
-          <t>8.872</t>
+          <t>8.887</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -38129,33 +38129,33 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>8.162</t>
+          <t>8.165</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>0.329 (P = 0.000)</t>
+          <t>0.047 (P = 0.469)</t>
         </is>
       </c>
       <c r="Q388" t="inlineStr"/>
       <c r="R388" t="inlineStr">
         <is>
-          <t>0.230 (P = 0.016)</t>
+          <t>-0.061 (P = 0.414)</t>
         </is>
       </c>
       <c r="S388" t="inlineStr">
         <is>
-          <t>0.143 (P = 0.964)</t>
+          <t>-0.667 (P = 0.184)</t>
         </is>
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>0.496 (P = 0.196)</t>
+          <t>0.211 (P = 0.408)</t>
         </is>
       </c>
       <c r="U388" t="inlineStr">
         <is>
-          <t>0.409 (P = 0.004)</t>
+          <t>0.181 (P = 0.122)</t>
         </is>
       </c>
     </row>
@@ -38570,39 +38570,39 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.548</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>8.586</t>
+          <t>8.789</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>5.643</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>8.548</t>
+          <t>8.211</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>8.074</t>
+          <t>8.288</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
-          <t>8.772</t>
+          <t>8.770</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -38617,33 +38617,33 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>8.377</t>
+          <t>8.425</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>0.232 (P = 0.002)</t>
+          <t>0.051 (P = 0.448)</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr"/>
       <c r="R393" t="inlineStr">
         <is>
-          <t>0.185 (P = 0.044)</t>
+          <t>-0.019 (P = 0.832)</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t>-2.310 (P = 0.353)</t>
+          <t>-1.667 (P = 0.338)</t>
         </is>
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>-0.021 (P = 0.970)</t>
+          <t>0.316 (P = 0.268)</t>
         </is>
       </c>
       <c r="U393" t="inlineStr">
         <is>
-          <t>0.303 (P = 0.010)</t>
+          <t>0.137 (P = 0.197)</t>
         </is>
       </c>
     </row>
@@ -39058,39 +39058,39 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8.095</t>
+          <t>8.274</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>8.441</t>
+          <t>8.583</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>5.545</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>8.238</t>
+          <t>8.222</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>7.695</t>
+          <t>7.915</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>8.221</t>
+          <t>8.241</t>
         </is>
       </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
-          <t>8.490</t>
+          <t>8.503</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -39105,33 +39105,33 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>7.913</t>
+          <t>7.946</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
         <is>
-          <t>0.126 (P = 0.094)</t>
+          <t>-0.033 (P = 0.655)</t>
         </is>
       </c>
       <c r="Q398" t="inlineStr"/>
       <c r="R398" t="inlineStr">
         <is>
-          <t>0.049 (P = 0.601)</t>
+          <t>-0.080 (P = 0.360)</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t>-2.212 (P = 0.458)</t>
+          <t>-1.000 (P = 0.816)</t>
         </is>
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>0.040 (P = 0.944)</t>
+          <t>0.056 (P = 0.854)</t>
         </is>
       </c>
       <c r="U398" t="inlineStr">
         <is>
-          <t>0.218 (P = 0.070)</t>
+          <t>0.031 (P = 0.806)</t>
         </is>
       </c>
     </row>
@@ -39546,39 +39546,39 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>8.303</t>
+          <t>8.586</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr">
         <is>
-          <t>8.524</t>
+          <t>8.850</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>5.462</t>
+          <t>4.333</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>8.756</t>
+          <t>9.158</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>8.053</t>
+          <t>8.262</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>8.536</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
-          <t>8.772</t>
+          <t>8.814</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -39593,33 +39593,33 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>8.239</t>
+          <t>8.262</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>0.233 (P = 0.003)</t>
+          <t>-0.018 (P = 0.795)</t>
         </is>
       </c>
       <c r="Q403" t="inlineStr"/>
       <c r="R403" t="inlineStr">
         <is>
-          <t>0.248 (P = 0.011)</t>
+          <t>-0.036 (P = 0.684)</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
         <is>
-          <t>-1.128 (P = 0.739)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>0.454 (P = 0.319)</t>
+          <t>0.053 (P = 0.772)</t>
         </is>
       </c>
       <c r="U403" t="inlineStr">
         <is>
-          <t>0.186 (P = 0.147)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
     </row>
@@ -40034,39 +40034,39 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>7.786</t>
+          <t>7.827</t>
         </is>
       </c>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
         <is>
-          <t>7.937</t>
+          <t>7.916</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>5.250</t>
+          <t>4.667</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>7.375</t>
+          <t>7.111</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>7.631</t>
+          <t>7.770</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>7.844</t>
+          <t>7.855</t>
         </is>
       </c>
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
-          <t>7.978</t>
+          <t>7.970</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -40076,38 +40076,38 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>6.474</t>
+          <t>6.833</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>7.769</t>
+          <t>7.789</t>
         </is>
       </c>
       <c r="P408" t="inlineStr">
         <is>
-          <t>0.058 (P = 0.460)</t>
+          <t>0.028 (P = 0.704)</t>
         </is>
       </c>
       <c r="Q408" t="inlineStr"/>
       <c r="R408" t="inlineStr">
         <is>
-          <t>0.040 (P = 0.690)</t>
+          <t>0.053 (P = 0.541)</t>
         </is>
       </c>
       <c r="S408" t="inlineStr">
         <is>
-          <t>-1.917 (P = 0.426)</t>
+          <t>-1.333 (P = 0.742)</t>
         </is>
       </c>
       <c r="T408" t="inlineStr">
         <is>
-          <t>-0.901 (P = 0.244)</t>
+          <t>-0.278 (P = 0.531)</t>
         </is>
       </c>
       <c r="U408" t="inlineStr">
         <is>
-          <t>0.138 (P = 0.254)</t>
+          <t>0.019 (P = 0.880)</t>
         </is>
       </c>
     </row>
@@ -40522,39 +40522,39 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>7.446</t>
+          <t>7.749</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>8.257</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>4.857</t>
+          <t>5.667</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>8.238</t>
+          <t>8.526</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>6.955</t>
+          <t>7.093</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>7.703</t>
+          <t>7.713</t>
         </is>
       </c>
       <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
-          <t>8.069</t>
+          <t>8.088</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -40569,33 +40569,33 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>7.232</t>
+          <t>7.233</t>
         </is>
       </c>
       <c r="P413" t="inlineStr">
         <is>
-          <t>0.257 (P = 0.005)</t>
+          <t>-0.035 (P = 0.599)</t>
         </is>
       </c>
       <c r="Q413" t="inlineStr"/>
       <c r="R413" t="inlineStr">
         <is>
-          <t>0.209 (P = 0.068)</t>
+          <t>-0.170 (P = 0.043)</t>
         </is>
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>0.810 (P = 0.793)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
         <is>
-          <t>0.078 (P = 0.892)</t>
+          <t>-0.211 (P = 0.448)</t>
         </is>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>0.277 (P = 0.062)</t>
+          <t>0.140 (P = 0.217)</t>
         </is>
       </c>
     </row>
@@ -41010,39 +41010,39 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>8.391</t>
+          <t>8.610</t>
         </is>
       </c>
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr">
         <is>
-          <t>8.592</t>
+          <t>8.818</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>8.385</t>
+          <t>7.667</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>8.659</t>
+          <t>9.167</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>8.337</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>8.574</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
-          <t>8.810</t>
+          <t>8.808</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
@@ -41052,38 +41052,38 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>9.263</t>
+          <t>9.278</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>8.260</t>
+          <t>8.251</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
         <is>
-          <t>0.183 (P = 0.013)</t>
+          <t>-0.043 (P = 0.541)</t>
         </is>
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr">
         <is>
-          <t>0.219 (P = 0.017)</t>
+          <t>-0.009 (P = 0.916)</t>
         </is>
       </c>
       <c r="S418" t="inlineStr">
         <is>
-          <t>-1.385 (P = 0.579)</t>
+          <t>-0.667 (P = 0.635)</t>
         </is>
       </c>
       <c r="T418" t="inlineStr">
         <is>
-          <t>0.605 (P = 0.118)</t>
+          <t>0.111 (P = 0.695)</t>
         </is>
       </c>
       <c r="U418" t="inlineStr">
         <is>
-          <t>0.110 (P = 0.370)</t>
+          <t>-0.086 (P = 0.454)</t>
         </is>
       </c>
     </row>
@@ -41498,39 +41498,39 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>7.822</t>
+          <t>7.788</t>
         </is>
       </c>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>7.783</t>
+          <t>7.691</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>8.643</t>
+          <t>6.667</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>5.857</t>
+          <t>5.765</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>7.893</t>
+          <t>7.998</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>7.744</t>
+          <t>7.740</t>
         </is>
       </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.548</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -41545,33 +41545,33 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>8.002</t>
+          <t>8.017</t>
         </is>
       </c>
       <c r="P423" t="inlineStr">
         <is>
-          <t>-0.078 (P = 0.344)</t>
+          <t>-0.048 (P = 0.527)</t>
         </is>
       </c>
       <c r="Q423" t="inlineStr"/>
       <c r="R423" t="inlineStr">
         <is>
-          <t>-0.212 (P = 0.057)</t>
+          <t>-0.143 (P = 0.144)</t>
         </is>
       </c>
       <c r="S423" t="inlineStr">
         <is>
-          <t>-1.976 (P = 0.435)</t>
+          <t>0.000 (P = 1.000)</t>
         </is>
       </c>
       <c r="T423" t="inlineStr">
         <is>
-          <t>0.966 (P = 0.282)</t>
+          <t>1.059 (P = 0.021)</t>
         </is>
       </c>
       <c r="U423" t="inlineStr">
         <is>
-          <t>0.109 (P = 0.370)</t>
+          <t>0.019 (P = 0.875)</t>
         </is>
       </c>
     </row>
@@ -41986,39 +41986,39 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8.038</t>
+          <t>8.082</t>
         </is>
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>8.121</t>
+          <t>8.124</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>8.929</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>8.235</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>7.933</t>
+          <t>8.019</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>8.110</t>
+          <t>8.116</t>
         </is>
       </c>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
-          <t>8.128</t>
+          <t>8.135</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -42028,38 +42028,38 @@
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>8.158</t>
+          <t>8.412</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>8.086</t>
+          <t>8.080</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
         <is>
-          <t>0.072 (P = 0.343)</t>
+          <t>0.033 (P = 0.666)</t>
         </is>
       </c>
       <c r="Q428" t="inlineStr"/>
       <c r="R428" t="inlineStr">
         <is>
-          <t>0.007 (P = 0.943)</t>
+          <t>0.011 (P = 0.912)</t>
         </is>
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>-0.929 (P = 0.460)</t>
+          <t>-0.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T428" t="inlineStr">
         <is>
-          <t>0.008 (P = 0.987)</t>
+          <t>0.176 (P = 0.661)</t>
         </is>
       </c>
       <c r="U428" t="inlineStr">
         <is>
-          <t>0.153 (P = 0.191)</t>
+          <t>0.060 (P = 0.617)</t>
         </is>
       </c>
     </row>
@@ -42474,80 +42474,80 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>8.753</t>
+          <t>8.879</t>
         </is>
       </c>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
-          <t>8.902</t>
+          <t>9.030</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>9.571</t>
+          <t>9.667</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>8.683</t>
+          <t>8.667</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>8.571</t>
+          <t>8.692</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>8.873</t>
+          <t>8.871</t>
         </is>
       </c>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
+          <t>8.993</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>8.333</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
           <t>9.000</t>
         </is>
       </c>
-      <c r="M433" t="inlineStr">
-        <is>
-          <t>8.333</t>
-        </is>
-      </c>
-      <c r="N433" t="inlineStr">
-        <is>
-          <t>8.947</t>
-        </is>
-      </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>8.713</t>
+          <t>8.716</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>0.120 (P = 0.051)</t>
+          <t>-0.008 (P = 0.894)</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr"/>
       <c r="R433" t="inlineStr">
         <is>
-          <t>0.098 (P = 0.206)</t>
+          <t>-0.037 (P = 0.622)</t>
         </is>
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t>-1.238 (P = 0.412)</t>
+          <t>-1.333 (P = 0.270)</t>
         </is>
       </c>
       <c r="T433" t="inlineStr">
         <is>
-          <t>0.264 (P = 0.508)</t>
+          <t>0.333 (P = 0.331)</t>
         </is>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>0.141 (P = 0.160)</t>
+          <t>0.023 (P = 0.819)</t>
         </is>
       </c>
     </row>
@@ -42962,39 +42962,39 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>8.465</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr">
         <is>
-          <t>8.568</t>
+          <t>8.596</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>9.462</t>
+          <t>9.667</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>7.825</t>
+          <t>7.278</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>8.348</t>
+          <t>8.559</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>8.516</t>
+          <t>8.523</t>
         </is>
       </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
-          <t>8.579</t>
+          <t>8.608</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -43004,38 +43004,38 @@
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>7.895</t>
+          <t>7.778</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>8.459</t>
+          <t>8.445</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>0.051 (P = 0.452)</t>
+          <t>-0.036 (P = 0.555)</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr"/>
       <c r="R438" t="inlineStr">
         <is>
-          <t>0.010 (P = 0.905)</t>
+          <t>0.011 (P = 0.879)</t>
         </is>
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>-0.128 (P = 0.776)</t>
+          <t>-0.333 (P = 0.423)</t>
         </is>
       </c>
       <c r="T438" t="inlineStr">
         <is>
-          <t>0.070 (P = 0.913)</t>
+          <t>0.500 (P = 0.526)</t>
         </is>
       </c>
       <c r="U438" t="inlineStr">
         <is>
-          <t>0.111 (P = 0.302)</t>
+          <t>-0.114 (P = 0.247)</t>
         </is>
       </c>
     </row>
@@ -43450,28 +43450,28 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
+          <t>0.752</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
           <t>0.684</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>0.857</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>0.628</t>
-        </is>
-      </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.821</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -43502,28 +43502,28 @@
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>0.099 (P = 0.000)</t>
+          <t>0.032 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q443" t="inlineStr"/>
       <c r="R443" t="inlineStr">
         <is>
-          <t>0.106 (P = 0.000)</t>
+          <t>0.037 (P = 0.009)</t>
         </is>
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>0.143 (P = 0.165)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
         <is>
-          <t>0.267 (P = 0.013)</t>
+          <t>0.211 (P = 0.042)</t>
         </is>
       </c>
       <c r="U443" t="inlineStr">
         <is>
-          <t>0.086 (P = 0.000)</t>
+          <t>0.018 (P = 0.277)</t>
         </is>
       </c>
     </row>
@@ -43899,32 +43899,32 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U447" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -44300,32 +44300,32 @@
       </c>
       <c r="P451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U451" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -44701,32 +44701,32 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="U455" t="inlineStr">
         <is>
-          <t>0.000 (P = 1.000)</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -45041,39 +45041,39 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>56.082</t>
+          <t>58.239</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr">
         <is>
-          <t>58.706</t>
+          <t>61.605</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>21.923</t>
+          <t>34.667</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>55.538</t>
+          <t>59.389</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>53.396</t>
+          <t>54.153</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>59.365</t>
+          <t>59.629</t>
         </is>
       </c>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
-          <t>62.548</t>
+          <t>62.953</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
@@ -45083,38 +45083,38 @@
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>51.105</t>
+          <t>53.389</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>55.858</t>
+          <t>55.857</t>
         </is>
       </c>
       <c r="P459" t="inlineStr">
         <is>
-          <t>3.283 (P = 0.004)</t>
+          <t>1.390 (P = 0.003)</t>
         </is>
       </c>
       <c r="Q459" t="inlineStr"/>
       <c r="R459" t="inlineStr">
         <is>
-          <t>3.842 (P = 0.011)</t>
+          <t>1.348 (P = 0.032)</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t>21.410 (P = 0.436)</t>
+          <t>8.667 (P = 0.186)</t>
         </is>
       </c>
       <c r="T459" t="inlineStr">
         <is>
-          <t>-4.433 (P = 0.597)</t>
+          <t>-6.000 (P = 0.086)</t>
         </is>
       </c>
       <c r="U459" t="inlineStr">
         <is>
-          <t>2.462 (P = 0.172)</t>
+          <t>1.704 (P = 0.019)</t>
         </is>
       </c>
     </row>
@@ -45528,39 +45528,39 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>35.098</t>
+          <t>31.026</t>
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
-          <t>33.483</t>
+          <t>28.039</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>30.583</t>
+          <t>36.667</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>17.927</t>
+          <t>14.105</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>37.252</t>
+          <t>35.337</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>31.701</t>
+          <t>31.393</t>
         </is>
       </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
-          <t>29.189</t>
+          <t>28.771</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
@@ -45575,33 +45575,33 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>35.448</t>
+          <t>35.212</t>
         </is>
       </c>
       <c r="P464" t="inlineStr">
         <is>
-          <t>-3.396 (P = 0.001)</t>
+          <t>0.367 (P = 0.566)</t>
         </is>
       </c>
       <c r="Q464" t="inlineStr"/>
       <c r="R464" t="inlineStr">
         <is>
-          <t>-4.293 (P = 0.003)</t>
+          <t>0.731 (P = 0.399)</t>
         </is>
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t>10.417 (P = 0.325)</t>
+          <t>4.333 (P = 0.737)</t>
         </is>
       </c>
       <c r="T464" t="inlineStr">
         <is>
-          <t>-2.874 (P = 0.637)</t>
+          <t>0.947 (P = 0.874)</t>
         </is>
       </c>
       <c r="U464" t="inlineStr">
         <is>
-          <t>-1.803 (P = 0.267)</t>
+          <t>-0.125 (P = 0.896)</t>
         </is>
       </c>
     </row>
@@ -46016,39 +46016,39 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>46.536</t>
+          <t>48.295</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr">
         <is>
-          <t>48.325</t>
+          <t>50.895</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>13.727</t>
+          <t>23.000</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>43.176</t>
+          <t>50.000</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>44.935</t>
+          <t>45.273</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>50.572</t>
+          <t>50.740</t>
         </is>
       </c>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
-          <t>52.966</t>
+          <t>53.338</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
@@ -46058,38 +46058,38 @@
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>44.556</t>
+          <t>49.812</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>48.110</t>
+          <t>47.877</t>
         </is>
       </c>
       <c r="P469" t="inlineStr">
         <is>
-          <t>4.037 (P = 0.000)</t>
+          <t>2.445 (P = 0.001)</t>
         </is>
       </c>
       <c r="Q469" t="inlineStr"/>
       <c r="R469" t="inlineStr">
         <is>
-          <t>4.641 (P = 0.001)</t>
+          <t>2.443 (P = 0.023)</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
         <is>
-          <t>1.273 (P = 0.947)</t>
+          <t>-8.000 (P = 0.500)</t>
         </is>
       </c>
       <c r="T469" t="inlineStr">
         <is>
-          <t>1.379 (P = 0.871)</t>
+          <t>-0.188 (P = 0.953)</t>
         </is>
       </c>
       <c r="U469" t="inlineStr">
         <is>
-          <t>3.174 (P = 0.051)</t>
+          <t>2.605 (P = 0.006)</t>
         </is>
       </c>
     </row>
@@ -46503,39 +46503,39 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>51.524</t>
+          <t>54.388</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr">
         <is>
-          <t>53.479</t>
+          <t>57.644</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>13.917</t>
+          <t>30.333</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>48.211</t>
+          <t>50.882</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>49.658</t>
+          <t>50.796</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>55.135</t>
+          <t>55.711</t>
         </is>
       </c>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
-          <t>58.632</t>
+          <t>59.794</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
@@ -46545,38 +46545,38 @@
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>43.389</t>
+          <t>45.471</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>51.381</t>
+          <t>51.340</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>3.611 (P = 0.004)</t>
+          <t>1.323 (P = 0.012)</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr"/>
       <c r="R474" t="inlineStr">
         <is>
-          <t>5.153 (P = 0.002)</t>
+          <t>2.150 (P = 0.004)</t>
         </is>
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>26.083 (P = 0.322)</t>
+          <t>9.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
         <is>
-          <t>-4.822 (P = 0.621)</t>
+          <t>-5.412 (P = 0.072)</t>
         </is>
       </c>
       <c r="U474" t="inlineStr">
         <is>
-          <t>1.723 (P = 0.364)</t>
+          <t>0.544 (P = 0.474)</t>
         </is>
       </c>
     </row>
@@ -46990,39 +46990,39 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5.316</t>
+          <t>5.499</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
-          <t>5.424</t>
+          <t>5.688</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>2.083</t>
+          <t>3.667</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>5.077</t>
+          <t>5.056</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>5.219</t>
+          <t>5.305</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>5.698</t>
+          <t>5.704</t>
         </is>
       </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
-          <t>5.865</t>
+          <t>5.879</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
@@ -47032,38 +47032,38 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>5.111</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>5.543</t>
+          <t>5.538</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
         <is>
-          <t>0.382 (P = 0.000)</t>
+          <t>0.205 (P = 0.000)</t>
         </is>
       </c>
       <c r="Q479" t="inlineStr"/>
       <c r="R479" t="inlineStr">
         <is>
-          <t>0.441 (P = 0.001)</t>
+          <t>0.191 (P = 0.015)</t>
         </is>
       </c>
       <c r="S479" t="inlineStr">
         <is>
-          <t>0.917 (P = 0.710)</t>
+          <t>-0.667 (P = 0.423)</t>
         </is>
       </c>
       <c r="T479" t="inlineStr">
         <is>
-          <t>-0.077 (P = 0.922)</t>
+          <t>0.056 (P = 0.871)</t>
         </is>
       </c>
       <c r="U479" t="inlineStr">
         <is>
-          <t>0.325 (P = 0.041)</t>
+          <t>0.233 (P = 0.010)</t>
         </is>
       </c>
     </row>
